--- a/Code Lists/TOOP CL Processes v1.xlsx
+++ b/Code Lists/TOOP CL Processes v1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Process" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Process!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Process!$A$1:$E$3</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Profile ID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>urn:eu.toop.process.documentrequestresponse</t>
   </si>
   <si>
-    <t>Shortcut</t>
-  </si>
-  <si>
     <t>Profile name</t>
   </si>
   <si>
@@ -47,12 +44,6 @@
   </si>
   <si>
     <t>TOOP Request Response for Documents</t>
-  </si>
-  <si>
-    <t>REQRESP DATA</t>
-  </si>
-  <si>
-    <t>REQRESP DOC</t>
   </si>
 </sst>
 </file>
@@ -543,86 +534,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="34.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.453125" style="4"/>
+    <col min="2" max="2" width="41.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
+    <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="b">
+      <c r="D3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="E4" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3">
-    <filterColumn colId="1"/>
-  </autoFilter>
+  <autoFilter ref="A1:E3"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
